--- a/simResults/varying reqsPerSec/Summary.xlsx
+++ b/simResults/varying reqsPerSec/Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>price/req</t>
   </si>
+  <si>
+    <t>VARYING REQUEST LOAD ON THE EDGE</t>
+  </si>
 </sst>
 </file>
 
@@ -106,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -644,11 +654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50449408"/>
-        <c:axId val="49303552"/>
+        <c:axId val="90736128"/>
+        <c:axId val="90737664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50449408"/>
+        <c:axId val="90736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49303552"/>
+        <c:crossAx val="90737664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49303552"/>
+        <c:axId val="90737664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -678,7 +688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50449408"/>
+        <c:crossAx val="90736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,12 +1035,18 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="O1" t="s">
         <v>18</v>
       </c>
